--- a/projeto-base-selenium/src/test/java/SISTEMA/transacoes/renda_fixa/operacoes_termo/OperacoesATermoTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/transacoes/renda_fixa/operacoes_termo/OperacoesATermoTest.xlsx
@@ -104,9 +104,6 @@
     <t>TA-CART TEST 2</t>
   </si>
   <si>
-    <t>TA-LFT 01</t>
-  </si>
-  <si>
     <t>TA-EM LTN 13 - 01/06/2007 - 01/02/2009</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>taxaDeNegociacao</t>
+  </si>
+  <si>
+    <t>TA-LTN 01</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>9</v>
@@ -635,18 +635,18 @@
         <v>11</v>
       </c>
       <c r="X1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -664,23 +664,23 @@
         <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>12</v>
@@ -690,19 +690,19 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>12</v>

--- a/projeto-base-selenium/src/test/java/SISTEMA/transacoes/renda_fixa/operacoes_termo/OperacoesATermoTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/transacoes/renda_fixa/operacoes_termo/OperacoesATermoTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\java\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\transacoes\renda_fixa\operacoes_termo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\SELENIUM\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\transacoes\renda_fixa\operacoes_termo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,9 +104,6 @@
     <t>TA-CART TEST 2</t>
   </si>
   <si>
-    <t>TA-EM LTN 13 - 01/06/2007 - 01/02/2009</t>
-  </si>
-  <si>
     <t>EF1-Empréstimo a Participante</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>TA-LTN 01</t>
+  </si>
+  <si>
+    <t>TA-EM LTN 12 - 01/06/2007 - 01/02/2009</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="B1:Z2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>9</v>
@@ -635,18 +635,18 @@
         <v>11</v>
       </c>
       <c r="X1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -664,23 +664,23 @@
         <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>12</v>
@@ -690,19 +690,19 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>12</v>
